--- a/PageObjectModel/fb.xlsx
+++ b/PageObjectModel/fb.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="19548" windowHeight="9408"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="19548" windowHeight="9408" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Register" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Forget" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>First Name</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Gautam</t>
   </si>
   <si>
-    <t>Saurav.gautam@gmail.com</t>
-  </si>
-  <si>
     <t>Saurav@123</t>
   </si>
   <si>
@@ -91,6 +88,39 @@
   </si>
   <si>
     <t>Saurav@128</t>
+  </si>
+  <si>
+    <t>Saurav1</t>
+  </si>
+  <si>
+    <t>Saurav9</t>
+  </si>
+  <si>
+    <t>gautam.saurav@gmail.com</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>PassWord</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>Test12</t>
+  </si>
+  <si>
+    <t>Test@589</t>
+  </si>
+  <si>
+    <t>saurav.gautam@gmail.com</t>
+  </si>
+  <si>
+    <t>Terst@Test.com</t>
   </si>
 </sst>
 </file>
@@ -114,12 +144,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,9 +171,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -442,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,52 +496,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -513,10 +553,10 @@
         <v>1990</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -527,13 +567,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -545,10 +585,10 @@
         <v>1995</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -559,13 +599,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -577,10 +617,10 @@
         <v>2000</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -591,13 +631,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -609,10 +649,10 @@
         <v>2005</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -623,13 +663,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -641,10 +681,10 @@
         <v>2005</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -655,13 +695,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -673,10 +713,10 @@
         <v>2005</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -687,13 +727,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>29</v>
@@ -702,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <v>2018</v>
+        <v>1918</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -719,13 +759,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -734,10 +774,10 @@
         <v>11</v>
       </c>
       <c r="H9">
-        <v>1880</v>
+        <v>1905</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -745,19 +785,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <v>31</v>
@@ -769,10 +809,10 @@
         <v>1998</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -780,30 +820,16 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="C4" r:id="rId5"/>
-    <hyperlink ref="C5" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="C8" r:id="rId8"/>
-    <hyperlink ref="C9" r:id="rId9"/>
-    <hyperlink ref="C10" r:id="rId10"/>
-    <hyperlink ref="D3" r:id="rId11"/>
-    <hyperlink ref="D4" r:id="rId12"/>
-    <hyperlink ref="D6" r:id="rId13"/>
-    <hyperlink ref="D7" r:id="rId14"/>
-    <hyperlink ref="D8" r:id="rId15"/>
-    <hyperlink ref="D9" r:id="rId16"/>
-    <hyperlink ref="D10" r:id="rId17"/>
-    <hyperlink ref="E3" r:id="rId18" display="Saurav@123"/>
-    <hyperlink ref="E4" r:id="rId19" display="Saurav@123"/>
-    <hyperlink ref="E5" r:id="rId20" display="Saurav@123"/>
-    <hyperlink ref="E6" r:id="rId21" display="Saurav@123"/>
-    <hyperlink ref="E8" r:id="rId22" display="Saurav@123"/>
-    <hyperlink ref="E9" r:id="rId23" display="Saurav@123"/>
-    <hyperlink ref="E10" r:id="rId24" display="Saurav@123"/>
-    <hyperlink ref="D5" r:id="rId25"/>
-    <hyperlink ref="C6" r:id="rId26"/>
-    <hyperlink ref="E7" r:id="rId27" display="Saurav@123"/>
+    <hyperlink ref="E3" r:id="rId4" display="Saurav@123"/>
+    <hyperlink ref="E4" r:id="rId5" display="Saurav@123"/>
+    <hyperlink ref="E5" r:id="rId6" display="Saurav@123"/>
+    <hyperlink ref="E6" r:id="rId7" display="Saurav@123"/>
+    <hyperlink ref="E8" r:id="rId8" display="Saurav@123"/>
+    <hyperlink ref="E9" r:id="rId9" display="Saurav@123"/>
+    <hyperlink ref="E10" r:id="rId10" display="Saurav@123"/>
+    <hyperlink ref="E7" r:id="rId11" display="Saurav@123"/>
+    <hyperlink ref="C3:C10" r:id="rId12" display="gautam.saurav@gmail.com"/>
+    <hyperlink ref="D3:D10" r:id="rId13" display="gautam.saurav@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -811,24 +837,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>